--- a/results/resultsParticipant.xlsx
+++ b/results/resultsParticipant.xlsx
@@ -414,7 +414,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -423,10 +423,10 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>20.55155101784469</v>
+        <v>7.002394562302324</v>
       </c>
       <c r="F2">
-        <v>823.6273999999999</v>
+        <v>990.5599999999999</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -434,7 +434,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -443,10 +443,10 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>19.50363271113787</v>
+        <v>7.32185430412113</v>
       </c>
       <c r="F3">
-        <v>1393.4216</v>
+        <v>1412.5895</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -463,10 +463,10 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>19.33863418869662</v>
+        <v>7.85893764337613</v>
       </c>
       <c r="F4">
-        <v>599.1554</v>
+        <v>642.5690000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -483,10 +483,10 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>12.80082001424014</v>
+        <v>5.283706020567705</v>
       </c>
       <c r="F5">
-        <v>960.2920999999999</v>
+        <v>548.7927000000002</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -503,10 +503,10 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>14.51111223030169</v>
+        <v>5.597256745794178</v>
       </c>
       <c r="F6">
-        <v>548.7269000000001</v>
+        <v>475.0768</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -514,7 +514,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -523,10 +523,10 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>12.19588366244822</v>
+        <v>5.157439762774044</v>
       </c>
       <c r="F7">
-        <v>918.9329</v>
+        <v>650.6723</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -534,7 +534,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>18.01576878231898</v>
+        <v>6.006502478787697</v>
       </c>
       <c r="F8">
-        <v>1200.5244</v>
+        <v>993.6983000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -554,7 +554,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -563,10 +563,10 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>20.36812270869604</v>
+        <v>5.204135757628497</v>
       </c>
       <c r="F9">
-        <v>220.1032</v>
+        <v>507.3191999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -574,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -583,10 +583,10 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <v>19.27611072435596</v>
+        <v>8.600099510621336</v>
       </c>
       <c r="F10">
-        <v>533.8189</v>
+        <v>522.0576000000001</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -594,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -603,10 +603,10 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>19.40610098459145</v>
+        <v>7.590580015361675</v>
       </c>
       <c r="F11">
-        <v>1561.1902</v>
+        <v>1051.0824</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -614,7 +614,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -623,10 +623,10 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>17.99386018766147</v>
+        <v>6.640301149951249</v>
       </c>
       <c r="F12">
-        <v>1298.4814</v>
+        <v>1486.608300000001</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -634,7 +634,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -643,10 +643,10 @@
         <v>10</v>
       </c>
       <c r="E13">
-        <v>13.56203763400632</v>
+        <v>9.660098499283437</v>
       </c>
       <c r="F13">
-        <v>115.0226</v>
+        <v>117.4134</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -654,7 +654,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -663,10 +663,10 @@
         <v>10</v>
       </c>
       <c r="E14">
-        <v>15.67512550872084</v>
+        <v>5.606104369014449</v>
       </c>
       <c r="F14">
-        <v>1233.0182</v>
+        <v>1271.6492</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -674,7 +674,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -683,10 +683,10 @@
         <v>10</v>
       </c>
       <c r="E15">
-        <v>8.111753008793389</v>
+        <v>4.065004797632901</v>
       </c>
       <c r="F15">
-        <v>588.056</v>
+        <v>810.3334000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -694,7 +694,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -703,10 +703,10 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>12.20154957811391</v>
+        <v>4.740030767301473</v>
       </c>
       <c r="F16">
-        <v>801.7049000000001</v>
+        <v>554.1023</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -714,7 +714,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -723,10 +723,10 @@
         <v>10</v>
       </c>
       <c r="E17">
-        <v>11.485375600944</v>
+        <v>5.148374528378501</v>
       </c>
       <c r="F17">
-        <v>727.4064</v>
+        <v>572.0085999999999</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -734,7 +734,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -743,10 +743,10 @@
         <v>10</v>
       </c>
       <c r="E18">
-        <v>15.84206676326044</v>
+        <v>5.300448792010487</v>
       </c>
       <c r="F18">
-        <v>1292.4794</v>
+        <v>805.2714999999998</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -754,7 +754,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -763,10 +763,10 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <v>8.083099136400262</v>
+        <v>3.302175817650669</v>
       </c>
       <c r="F19">
-        <v>996.9296999999999</v>
+        <v>739.8534999999999</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -774,7 +774,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -783,10 +783,10 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <v>14.5899833899749</v>
+        <v>5.32056935755115</v>
       </c>
       <c r="F20">
-        <v>1235.7693</v>
+        <v>993.7463</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -794,7 +794,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -803,10 +803,10 @@
         <v>10</v>
       </c>
       <c r="E21">
-        <v>8.142636489447767</v>
+        <v>4.855349531467875</v>
       </c>
       <c r="F21">
-        <v>294.501</v>
+        <v>541.4542000000001</v>
       </c>
     </row>
   </sheetData>

--- a/results/resultsParticipant.xlsx
+++ b/results/resultsParticipant.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,13 +420,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>7.002394562302324</v>
+        <v>6.572344701746696</v>
       </c>
       <c r="F2">
-        <v>990.5599999999999</v>
+        <v>1016.1328</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -440,13 +440,13 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>7.32185430412113</v>
+        <v>7.228840977299592</v>
       </c>
       <c r="F3">
-        <v>1412.5895</v>
+        <v>1395.53</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -460,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>7.85893764337613</v>
@@ -480,13 +480,13 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>5.283706020567705</v>
+        <v>4.785873827263323</v>
       </c>
       <c r="F5">
-        <v>548.7927000000002</v>
+        <v>589.8462000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -500,13 +500,13 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>5.597256745794178</v>
+        <v>4.778656598754566</v>
       </c>
       <c r="F6">
-        <v>475.0768</v>
+        <v>509.9256</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -520,13 +520,13 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>5.157439762774044</v>
+        <v>4.614659024297753</v>
       </c>
       <c r="F7">
-        <v>650.6723</v>
+        <v>590.9262000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>6.006502478787697</v>
+        <v>5.794419961498145</v>
       </c>
       <c r="F8">
-        <v>993.6983000000001</v>
+        <v>845.7159</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>5.204135757628497</v>
+        <v>6.832970955825541</v>
       </c>
       <c r="F9">
-        <v>507.3191999999999</v>
+        <v>197.8158999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -580,13 +580,13 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>8.600099510621336</v>
+        <v>8.221315234392607</v>
       </c>
       <c r="F10">
-        <v>522.0576000000001</v>
+        <v>373.7257</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -600,13 +600,13 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>7.590580015361675</v>
+        <v>6.801075712446708</v>
       </c>
       <c r="F11">
-        <v>1051.0824</v>
+        <v>1305.8236</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -620,13 +620,13 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>6.640301149951249</v>
+        <v>6.85406572800365</v>
       </c>
       <c r="F12">
-        <v>1486.608300000001</v>
+        <v>1224.8842</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -637,16 +637,16 @@
         <v>3000</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>9.660098499283437</v>
+        <v>5.689874777671158</v>
       </c>
       <c r="F13">
-        <v>117.4134</v>
+        <v>1164.7931</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -657,16 +657,16 @@
         <v>3000</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>5.606104369014449</v>
+        <v>4.352416113392329</v>
       </c>
       <c r="F14">
-        <v>1271.6492</v>
+        <v>684.7062999999999</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -677,16 +677,16 @@
         <v>3000</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>4.065004797632901</v>
+        <v>4.309424978336399</v>
       </c>
       <c r="F15">
-        <v>810.3334000000001</v>
+        <v>518.8371000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -697,16 +697,16 @@
         <v>3000</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>4.740030767301473</v>
+        <v>3.969770178133262</v>
       </c>
       <c r="F16">
-        <v>554.1023</v>
+        <v>478.0282</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -717,16 +717,16 @@
         <v>3000</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>5.148374528378501</v>
+        <v>4.973029817847094</v>
       </c>
       <c r="F17">
-        <v>572.0085999999999</v>
+        <v>865.5159000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -737,16 +737,16 @@
         <v>3000</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>5.300448792010487</v>
+        <v>2.698841491175251</v>
       </c>
       <c r="F18">
-        <v>805.2714999999998</v>
+        <v>677.1415999999999</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -757,16 +757,16 @@
         <v>3000</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>3.302175817650669</v>
+        <v>5.096280814697247</v>
       </c>
       <c r="F19">
-        <v>739.8534999999999</v>
+        <v>984.5337000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -777,36 +777,16 @@
         <v>3000</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>5.32056935755115</v>
+        <v>4.885386839837834</v>
       </c>
       <c r="F20">
-        <v>993.7463</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>3000</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>4.855349531467875</v>
-      </c>
-      <c r="F21">
-        <v>541.4542000000001</v>
+        <v>285.3227</v>
       </c>
     </row>
   </sheetData>

--- a/results/resultsParticipant.xlsx
+++ b/results/resultsParticipant.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,376 +417,16 @@
         <v>3000</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>6.572344701746696</v>
+        <v>4.464905601109714</v>
       </c>
       <c r="F2">
-        <v>1016.1328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3000</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>7.228840977299592</v>
-      </c>
-      <c r="F3">
-        <v>1395.53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3000</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>7.85893764337613</v>
-      </c>
-      <c r="F4">
-        <v>642.5690000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3000</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>4.785873827263323</v>
-      </c>
-      <c r="F5">
-        <v>589.8462000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>3000</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>4.778656598754566</v>
-      </c>
-      <c r="F6">
-        <v>509.9256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>3000</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>4.614659024297753</v>
-      </c>
-      <c r="F7">
-        <v>590.9262000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>3000</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>5.794419961498145</v>
-      </c>
-      <c r="F8">
-        <v>845.7159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>3000</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>6.832970955825541</v>
-      </c>
-      <c r="F9">
-        <v>197.8158999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>3000</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>8.221315234392607</v>
-      </c>
-      <c r="F10">
-        <v>373.7257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>3000</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>6.801075712446708</v>
-      </c>
-      <c r="F11">
-        <v>1305.8236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>3000</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>6.85406572800365</v>
-      </c>
-      <c r="F12">
-        <v>1224.8842</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>3000</v>
-      </c>
-      <c r="C13">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>5.689874777671158</v>
-      </c>
-      <c r="F13">
-        <v>1164.7931</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>3000</v>
-      </c>
-      <c r="C14">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>4.352416113392329</v>
-      </c>
-      <c r="F14">
-        <v>684.7062999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>3000</v>
-      </c>
-      <c r="C15">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>4.309424978336399</v>
-      </c>
-      <c r="F15">
-        <v>518.8371000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>3000</v>
-      </c>
-      <c r="C16">
-        <v>16</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>3.969770178133262</v>
-      </c>
-      <c r="F16">
-        <v>478.0282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>3000</v>
-      </c>
-      <c r="C17">
-        <v>17</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>4.973029817847094</v>
-      </c>
-      <c r="F17">
-        <v>865.5159000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>3000</v>
-      </c>
-      <c r="C18">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>2.698841491175251</v>
-      </c>
-      <c r="F18">
-        <v>677.1415999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>3000</v>
-      </c>
-      <c r="C19">
-        <v>19</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>5.096280814697247</v>
-      </c>
-      <c r="F19">
-        <v>984.5337000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>3000</v>
-      </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <v>4.885386839837834</v>
-      </c>
-      <c r="F20">
-        <v>285.3227</v>
+        <v>800.5603</v>
       </c>
     </row>
   </sheetData>

--- a/results/resultsParticipant.xlsx
+++ b/results/resultsParticipant.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,16 +417,396 @@
         <v>3000</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>6.60869307700319</v>
+      </c>
+      <c r="F2">
+        <v>1070.6317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3000</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>7.299787708709571</v>
+      </c>
+      <c r="F3">
+        <v>1415.9084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3000</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>7.85893764337613</v>
+      </c>
+      <c r="F4">
+        <v>642.5690000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3000</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>4.593158806225821</v>
+      </c>
+      <c r="F5">
+        <v>877.062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3000</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>5.17807708575072</v>
+      </c>
+      <c r="F6">
+        <v>728.8030999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3000</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>4.725605545853591</v>
+      </c>
+      <c r="F7">
+        <v>873.9599999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3000</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>5.333819297697558</v>
+      </c>
+      <c r="F8">
+        <v>1330.8975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3000</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>5.108525760744161</v>
+      </c>
+      <c r="F9">
+        <v>600.6339999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3000</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>7.377457297111516</v>
+      </c>
+      <c r="F10">
+        <v>755.0204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3000</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>6.738185545039576</v>
+      </c>
+      <c r="F11">
+        <v>1522.4909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3000</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>6.018201625009492</v>
+      </c>
+      <c r="F12">
+        <v>1863.4546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3000</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>7.005961915086409</v>
+      </c>
+      <c r="F13">
+        <v>255.7185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3000</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>5.040659110120907</v>
+      </c>
+      <c r="F14">
+        <v>1565.5031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>3000</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>3.597975746048344</v>
+      </c>
+      <c r="F15">
+        <v>1179.2965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>3000</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>4.420036612820993</v>
+      </c>
+      <c r="F16">
+        <v>803.2319000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>3000</v>
+      </c>
+      <c r="C17">
         <v>16</v>
       </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
         <v>4.464905601109714</v>
       </c>
-      <c r="F2">
+      <c r="F17">
         <v>800.5603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3000</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>5.116316240997665</v>
+      </c>
+      <c r="F18">
+        <v>1236.5861</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>3000</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>2.906358479492045</v>
+      </c>
+      <c r="F19">
+        <v>1097.7146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>3000</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>4.777966849038944</v>
+      </c>
+      <c r="F20">
+        <v>1559.909399999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>3000</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>4.387744588261096</v>
+      </c>
+      <c r="F21">
+        <v>779.5659999999999</v>
       </c>
     </row>
   </sheetData>
